--- a/src/main/resources/HiredCandidate1.xlsx
+++ b/src/main/resources/HiredCandidate1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\LMS_Application\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -107,25 +107,10 @@
     <t>rahul</t>
   </si>
   <si>
-    <t>Balaji</t>
-  </si>
-  <si>
-    <t>Sukdev</t>
-  </si>
-  <si>
-    <t>kadam</t>
-  </si>
-  <si>
-    <t>balajikada9191@gmail.com</t>
-  </si>
-  <si>
-    <t>Kolhapure</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
   </si>
 </sst>
 </file>
@@ -477,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>25</v>
@@ -625,34 +610,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="4">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="I3" s="2">
-        <v>9767388889</v>
+        <v>9665382289</v>
       </c>
       <c r="J3" s="2">
-        <v>415307</v>
+        <v>415306</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
@@ -664,19 +649,108 @@
         <v>24</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="4">
-        <v>44167</v>
+        <v>44168</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
